--- a/biology/Botanique/Bluet/Bluet.xlsx
+++ b/biology/Botanique/Bluet/Bluet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -514,7 +526,9 @@
           <t>Plante à fleurs bleues</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bluet, nom vernaculaire donné à des plantes à fleurs bleues de la famille des Asteracées, appelées aussi bleuets :
 Bleuet des champs (Centaurea cyanus)
@@ -546,7 +560,9 @@
           <t>Plante à fruits bleus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bluet, nom vernaculaire donné au Québec à des plantes à baies bleues du genre Vaccinium :
 Bleuet à feuille dentelée (Vaccinium angustifolium) ou airelle à feuilles étroites
@@ -582,7 +598,9 @@
           <t>Surnom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bluet, sobriquet donné par extension aux habitants de la région administrative québécoise du Saguenay–Lac-Saint-Jean ou plus précisément du Lac-St-Jean où les bluets sont cultivés en grande quantité.
 </t>
